--- a/medicine/Autisme/Ben_X/Ben_X.xlsx
+++ b/medicine/Autisme/Ben_X/Ben_X.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ben X est un film dramatique belge réalisé par Nic Balthazar sorti en 2007. Le film est tiré du roman Niets was alles wat hij zei, publié en 2005 par Nic Balthazar, et traduit en français en 2007 sous le titre Ben X. Le titre reprend le pseudonyme de Ben, protagoniste du film, un jeune garçon flamand atteint du syndrome d'Asperger qui éprouve de nombreuses difficultés à vivre normalement à cause de son harcèlement scolaire[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ben X est un film dramatique belge réalisé par Nic Balthazar sorti en 2007. Le film est tiré du roman Niets was alles wat hij zei, publié en 2005 par Nic Balthazar, et traduit en français en 2007 sous le titre Ben X. Le titre reprend le pseudonyme de Ben, protagoniste du film, un jeune garçon flamand atteint du syndrome d'Asperger qui éprouve de nombreuses difficultés à vivre normalement à cause de son harcèlement scolaire.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Harcelé à l'école et manquant de confiance en lui, Ben, un adolescent de 17 ans, atteint du syndrome d'Asperger, passe presque tout son temps libre sur internet. Il joue à un jeu de combat et de stratégie en ligne massivement multijoueur nommé « Archlord », qui l'aide à se repérer et à s'épanouir dans la vie.
 Sur ce jeu où il est un héros respecté sous le pseudonyme « Ben X », il rencontre une jeune fille qui deviendra une amie très chère : Scarlite. Lorsqu'elle lui propose de se rencontrer en vrai, il vit l'un des plus beaux moments de sa vie... qui se transforme en cauchemar quand ses deux principaux bourreaux le découvrent et menacent de s'inviter à leur rencontre. Il renoncera alors à adresser la parole à son amie pour la préserver.
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Ben X
 Réalisation : Nic Balthazar
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Greg Timmermans : Ben
 Marijke Pinoy : la mère de Ben
@@ -634,7 +652,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>En néerlandais, la prononciation de Ben X se rapproche de celle de la phrase « (ik) ben niks », signifiant : « (je) ne suis rien ».</t>
         </is>
@@ -664,10 +684,12 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Festival du film de Montréal, 31e édition (2007).
-Prix œcuménique (jury)[2].
+Prix œcuménique (jury).
 Grand prix des Amériques (jury).
 Film le plus populaire (public).
 2e Prix spécial du Conseil général de la Dordogne du 16e Festival du film de Sarlat.
